--- a/artfynd/A 8665-2020.xlsx
+++ b/artfynd/A 8665-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7238787</v>
+        <v>92649821</v>
       </c>
       <c r="B2" t="n">
         <v>100301</v>
@@ -725,9 +725,10 @@
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hjärnarp 700 m NV Kärrgårda, Sk</t>
+          <t>Kärrgårda,  700 m NV , Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -737,7 +738,7 @@
         <v>6241306.966777639</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,6 +760,11 @@
           <t>Tåstarp</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>M-Äng-0128</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>2013-06-25</t>
@@ -781,7 +787,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Hårt trängt exemplar inne i skogen. Behöver röjas om arten skall överleva</t>
+          <t>En gammal lokal som ansågs utdöd, men jag lyckades hitta ett tynande ex i skogen. Hårt trängt exempla. Behöver röjas om arten skall överleva</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,21 +796,26 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Charlotte Wigermo</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
           <t>Ulf Ryde</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Ulf Ryde</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
